--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1717145.635576515</v>
+        <v>1714362.893574008</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5375305.57478488</v>
+        <v>5375305.574784878</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4622776.743320934</v>
+        <v>4622776.743320937</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7896512.21138019</v>
+        <v>7896512.211380191</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C2" t="n">
-        <v>152.2111482390281</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G2" t="n">
-        <v>229.9609751381512</v>
+        <v>130.7084367930148</v>
       </c>
       <c r="H2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,13 +746,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>59.80100466829905</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>194.4727132388761</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>104.157916135564</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="U4" t="n">
-        <v>68.29518815550732</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>36.67827530786409</v>
       </c>
       <c r="G5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>52.8703870779016</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>15.34355284276773</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>167.5874678630932</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>148.0106539846338</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>229.9609751381512</v>
+        <v>144.0930101781009</v>
       </c>
       <c r="V7" t="n">
         <v>229.9609751381512</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>217.5488706475825</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>11.86809235561412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>45.81494526104321</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
         <v>48.89338144820752</v>
@@ -1265,7 +1265,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>175.2139736830806</v>
+        <v>133.6144767087188</v>
       </c>
       <c r="U9" t="n">
         <v>207.9625118881446</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.94568874373767</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>154.0354731085605</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I11" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.26208160698278</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>328.6692529201721</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>36.38291902721445</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -1545,13 +1545,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H13" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>196.1071114281788</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>11.48144906793186</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I14" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T14" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U14" t="n">
-        <v>81.12691971546799</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>197.1469039940698</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6.579875172995379</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.34651070768911</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23.01321318831781</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -1864,7 +1864,7 @@
         <v>310.8487014719486</v>
       </c>
       <c r="I17" t="n">
-        <v>99.33381454625263</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>142.612139577294</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.9939863054483</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1171374361989</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>71.02850121519826</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.7350713834572</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.9807231521825</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>193.1597449832303</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.6531187611509</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5605284790281</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>142.612139577294</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.9939863054483</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1171374361989</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>188.6886729743936</v>
       </c>
       <c r="W20" t="n">
-        <v>332.4982008189472</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>9.25830397188955</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>125.1894405084222</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5605284790281</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2335,7 +2335,7 @@
         <v>408.0553175375213</v>
       </c>
       <c r="H23" t="n">
-        <v>239.2650631098521</v>
+        <v>310.8487014719486</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>142.612139577294</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.9939863054483</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>334.8948253334028</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>120.7864607230074</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.1337984008994</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>150.0320816052556</v>
       </c>
       <c r="I25" t="n">
-        <v>118.6001984744887</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.9807231521825</v>
       </c>
       <c r="S25" t="n">
-        <v>193.1597449832303</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>91.48973943320932</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>408.0553175375213</v>
@@ -2575,7 +2575,7 @@
         <v>310.8487014719486</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.33381454625263</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>142.612139577294</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.9939863054483</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1171374361989</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>188.6886729743936</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>134.8970560997849</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>53.63347929596036</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>150.0320816052556</v>
       </c>
       <c r="I28" t="n">
-        <v>118.6001984744887</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.1597449832303</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>231.4916246634004</v>
       </c>
       <c r="U28" t="n">
-        <v>118.0030373438867</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>126.2555180312081</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2806,7 +2806,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.0553175375213</v>
       </c>
       <c r="H29" t="n">
         <v>310.8487014719486</v>
@@ -2851,10 +2851,10 @@
         <v>253.1171374361989</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>42.58826888310039</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>150.0320816052556</v>
       </c>
       <c r="I31" t="n">
-        <v>118.6001984744887</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.9807231521825</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>193.1597449832303</v>
@@ -3006,16 +3006,16 @@
         <v>231.4916246634004</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>5.869715739505919</v>
       </c>
       <c r="V31" t="n">
-        <v>170.105095074192</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>355.5773547504041</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>142.612139577294</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.9939863054483</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>288.0224875206465</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>96.84355136823966</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.1337984008994</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>150.0320816052556</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>118.6001984744887</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.9807231521825</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>193.1597449832303</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>231.4916246634004</v>
       </c>
       <c r="U34" t="n">
         <v>282.5605284790281</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>274.7888666977207</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3277,10 +3277,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>157.3942946210312</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>408.0553175375213</v>
       </c>
       <c r="H35" t="n">
         <v>310.8487014719486</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>142.612139577294</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.9939863054483</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1171374361989</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>71.02850121519737</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>150.0320816052556</v>
       </c>
       <c r="I37" t="n">
         <v>118.6001984744887</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>231.4916246634004</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5605284790281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>162.4917522129537</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>75.56725765640341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>8.11013242953287</v>
+        <v>116.757890128308</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3523,7 +3523,7 @@
         <v>310.8487014719486</v>
       </c>
       <c r="I38" t="n">
-        <v>99.33381454625263</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>72.49475621206476</v>
+        <v>76.38391485546934</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>231.4916246634004</v>
       </c>
       <c r="U40" t="n">
         <v>282.5605284790281</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>393.7896361970918</v>
+        <v>351.0495157067397</v>
       </c>
       <c r="H41" t="n">
-        <v>310.8487014719486</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>64.71168718232485</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>150.0320816052556</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>102.9807231521825</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>193.1597449832303</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>231.4916246634004</v>
       </c>
       <c r="U43" t="n">
         <v>282.5605284790281</v>
       </c>
       <c r="V43" t="n">
-        <v>15.52035058058087</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.0553175375213</v>
       </c>
       <c r="H44" t="n">
-        <v>310.8487014719486</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>185.3284847568614</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1171374361989</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>268.680328754388</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -4146,13 +4146,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>150.4231886892285</v>
       </c>
       <c r="G46" t="n">
         <v>166.1337984008994</v>
       </c>
       <c r="H46" t="n">
-        <v>150.0320816052556</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>118.6001984744887</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.9176628922586</v>
+        <v>193.1597449832303</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649.5671735672668</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="C2" t="n">
-        <v>495.8185389823898</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="D2" t="n">
-        <v>495.8185389823898</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="E2" t="n">
-        <v>495.8185389823898</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="F2" t="n">
-        <v>482.9645045527716</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="G2" t="n">
-        <v>250.6806912819119</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="H2" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="I2" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L2" t="n">
-        <v>279.6756096381168</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M2" t="n">
-        <v>279.6756096381168</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N2" t="n">
         <v>279.6756096381168</v>
@@ -4354,28 +4354,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S2" t="n">
-        <v>881.8509868381266</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T2" t="n">
-        <v>881.8509868381266</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U2" t="n">
-        <v>881.8509868381266</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="V2" t="n">
-        <v>881.8509868381266</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="W2" t="n">
-        <v>881.8509868381266</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="X2" t="n">
-        <v>881.8509868381266</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="Y2" t="n">
-        <v>649.5671735672668</v>
+        <v>753.3303454936552</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.7832617889708</v>
+        <v>493.2895706062187</v>
       </c>
       <c r="C3" t="n">
-        <v>236.7832617889708</v>
+        <v>493.2895706062187</v>
       </c>
       <c r="D3" t="n">
-        <v>106.6942944104512</v>
+        <v>363.200603227699</v>
       </c>
       <c r="E3" t="n">
-        <v>106.6942944104512</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="F3" t="n">
-        <v>106.6942944104512</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G3" t="n">
         <v>106.6942944104512</v>
@@ -4415,46 +4415,46 @@
         <v>359.1732256175491</v>
       </c>
       <c r="L3" t="n">
-        <v>586.8345910043187</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M3" t="n">
-        <v>814.4959563910883</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N3" t="n">
-        <v>814.4959563910883</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O3" t="n">
-        <v>814.4959563910883</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P3" t="n">
-        <v>814.4959563910883</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q3" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S3" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T3" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U3" t="n">
-        <v>835.5218022301651</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V3" t="n">
-        <v>835.5218022301651</v>
+        <v>723.4068164729318</v>
       </c>
       <c r="W3" t="n">
-        <v>605.404556363452</v>
+        <v>493.2895706062187</v>
       </c>
       <c r="X3" t="n">
-        <v>416.0974787134636</v>
+        <v>493.2895706062187</v>
       </c>
       <c r="Y3" t="n">
-        <v>236.7832617889708</v>
+        <v>493.2895706062187</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.6740593734053</v>
+        <v>279.2400074070869</v>
       </c>
       <c r="C4" t="n">
-        <v>494.6740593734053</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="D4" t="n">
-        <v>494.6740593734053</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E4" t="n">
-        <v>494.6740593734053</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F4" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G4" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H4" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J4" t="n">
         <v>18.39687801105209</v>
@@ -4512,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T4" t="n">
-        <v>563.6590979143218</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U4" t="n">
-        <v>494.6740593734053</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V4" t="n">
-        <v>494.6740593734053</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W4" t="n">
-        <v>494.6740593734053</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X4" t="n">
-        <v>494.6740593734053</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y4" t="n">
-        <v>494.6740593734053</v>
+        <v>464.4480260983881</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.155655889925</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="C5" t="n">
-        <v>634.155655889925</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="D5" t="n">
-        <v>634.155655889925</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="E5" t="n">
-        <v>401.8718426190652</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="F5" t="n">
+        <v>621.3016214603068</v>
+      </c>
+      <c r="G5" t="n">
         <v>389.017808189447</v>
-      </c>
-      <c r="G5" t="n">
-        <v>156.7339949185873</v>
       </c>
       <c r="H5" t="n">
         <v>156.7339949185873</v>
@@ -4570,49 +4570,49 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K5" t="n">
-        <v>236.8598043922958</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L5" t="n">
-        <v>236.8598043922958</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M5" t="n">
-        <v>464.5211697790654</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N5" t="n">
-        <v>692.182535165835</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O5" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P5" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q5" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S5" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T5" t="n">
-        <v>919.8439005526046</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="U5" t="n">
-        <v>866.4394691607848</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="V5" t="n">
-        <v>866.4394691607848</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="W5" t="n">
-        <v>866.4394691607848</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="X5" t="n">
-        <v>866.4394691607848</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="Y5" t="n">
-        <v>634.155655889925</v>
+        <v>658.3503843975433</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561.2565523338352</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="C6" t="n">
-        <v>410.6023218939274</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="D6" t="n">
-        <v>280.5133545154077</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="E6" t="n">
-        <v>280.5133545154077</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="F6" t="n">
-        <v>156.0815483985396</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="G6" t="n">
-        <v>156.0815483985396</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H6" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
@@ -4649,19 +4649,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>359.1732256175491</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L6" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M6" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="N6" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O6" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="P6" t="n">
         <v>919.8439005526046</v>
@@ -4673,25 +4673,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T6" t="n">
-        <v>919.8439005526046</v>
+        <v>769.4146852274555</v>
       </c>
       <c r="U6" t="n">
-        <v>919.8439005526046</v>
+        <v>559.3515419060973</v>
       </c>
       <c r="V6" t="n">
-        <v>919.8439005526046</v>
+        <v>336.8115402771643</v>
       </c>
       <c r="W6" t="n">
-        <v>750.5636299838236</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="X6" t="n">
-        <v>561.2565523338352</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="Y6" t="n">
-        <v>561.2565523338352</v>
+        <v>106.6942944104512</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.375284643462</v>
+        <v>339.1955083348993</v>
       </c>
       <c r="C7" t="n">
-        <v>331.375284643462</v>
+        <v>339.1955083348993</v>
       </c>
       <c r="D7" t="n">
-        <v>331.375284643462</v>
+        <v>339.1955083348993</v>
       </c>
       <c r="E7" t="n">
-        <v>331.375284643462</v>
+        <v>339.1955083348993</v>
       </c>
       <c r="F7" t="n">
         <v>181.8695735478723</v>
@@ -4722,10 +4722,10 @@
         <v>181.8695735478723</v>
       </c>
       <c r="I7" t="n">
-        <v>48.77514818495022</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J7" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K7" t="n">
         <v>100.231919120994</v>
@@ -4734,7 +4734,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M7" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N7" t="n">
         <v>633.8407713642671</v>
@@ -4749,28 +4749,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S7" t="n">
-        <v>795.9429111851816</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T7" t="n">
-        <v>795.9429111851816</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="U7" t="n">
-        <v>563.6590979143218</v>
+        <v>571.4793216057591</v>
       </c>
       <c r="V7" t="n">
-        <v>331.375284643462</v>
+        <v>339.1955083348993</v>
       </c>
       <c r="W7" t="n">
-        <v>331.375284643462</v>
+        <v>339.1955083348993</v>
       </c>
       <c r="X7" t="n">
-        <v>331.375284643462</v>
+        <v>339.1955083348993</v>
       </c>
       <c r="Y7" t="n">
-        <v>331.375284643462</v>
+        <v>339.1955083348993</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.333511393791</v>
+        <v>1884.283606964063</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.333511393791</v>
+        <v>1664.537272976606</v>
       </c>
       <c r="D8" t="n">
-        <v>934.8923826104583</v>
+        <v>1279.096144193273</v>
       </c>
       <c r="E8" t="n">
-        <v>934.8923826104583</v>
+        <v>876.5126193098179</v>
       </c>
       <c r="F8" t="n">
-        <v>922.0383481808401</v>
+        <v>459.6181808397956</v>
       </c>
       <c r="G8" t="n">
-        <v>508.8755926688433</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H8" t="n">
-        <v>184.7925422353339</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I8" t="n">
         <v>46.45542532779876</v>
@@ -4807,22 +4807,22 @@
         <v>191.1051982366269</v>
       </c>
       <c r="K8" t="n">
-        <v>513.4125980100966</v>
+        <v>191.1051982366269</v>
       </c>
       <c r="L8" t="n">
-        <v>1006.732889728626</v>
+        <v>684.4254899551557</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.732889728626</v>
+        <v>821.8873295876768</v>
       </c>
       <c r="N8" t="n">
-        <v>1534.544173366088</v>
+        <v>1349.698613225139</v>
       </c>
       <c r="O8" t="n">
-        <v>1974.583774258416</v>
+        <v>1789.738214117467</v>
       </c>
       <c r="P8" t="n">
-        <v>2322.771266389938</v>
+        <v>2137.925706248989</v>
       </c>
       <c r="Q8" t="n">
         <v>2322.771266389938</v>
@@ -4831,25 +4831,25 @@
         <v>2284.77835267546</v>
       </c>
       <c r="S8" t="n">
-        <v>2118.26479761651</v>
+        <v>2284.77835267546</v>
       </c>
       <c r="T8" t="n">
-        <v>2106.276825540132</v>
+        <v>2284.77835267546</v>
       </c>
       <c r="U8" t="n">
-        <v>2106.276825540132</v>
+        <v>2284.77835267546</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.276825540132</v>
+        <v>2284.77835267546</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.276825540132</v>
+        <v>2284.77835267546</v>
       </c>
       <c r="X8" t="n">
-        <v>1716.824220473189</v>
+        <v>2284.77835267546</v>
       </c>
       <c r="Y8" t="n">
-        <v>1320.333511393791</v>
+        <v>2284.77835267546</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>803.8017145543329</v>
+        <v>845.8214084678298</v>
       </c>
       <c r="C9" t="n">
-        <v>653.1474841144251</v>
+        <v>695.167178027922</v>
       </c>
       <c r="D9" t="n">
-        <v>523.0585167359054</v>
+        <v>565.0782106494023</v>
       </c>
       <c r="E9" t="n">
-        <v>386.6120258467931</v>
+        <v>428.63171976029</v>
       </c>
       <c r="F9" t="n">
-        <v>262.1802197299249</v>
+        <v>304.1999136434218</v>
       </c>
       <c r="G9" t="n">
-        <v>142.1204018017894</v>
+        <v>184.1400957152862</v>
       </c>
       <c r="H9" t="n">
         <v>95.84267931588717</v>
@@ -4883,25 +4883,25 @@
         <v>46.45542532779876</v>
       </c>
       <c r="J9" t="n">
-        <v>159.5704075475261</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="K9" t="n">
-        <v>479.3095536097526</v>
+        <v>366.1945713900252</v>
       </c>
       <c r="L9" t="n">
-        <v>962.8756395080659</v>
+        <v>849.7606572883385</v>
       </c>
       <c r="M9" t="n">
-        <v>1537.761527939575</v>
+        <v>1400.629615082559</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.885892244066</v>
+        <v>1400.629615082559</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.406174835047</v>
+        <v>1917.14989767354</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.406174835047</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="Q9" t="n">
         <v>2322.771266389938</v>
@@ -4913,22 +4913,22 @@
         <v>2163.923546187871</v>
       </c>
       <c r="T9" t="n">
-        <v>1986.939734386779</v>
+        <v>2028.959428300276</v>
       </c>
       <c r="U9" t="n">
-        <v>1776.876591065421</v>
+        <v>1818.896284978918</v>
       </c>
       <c r="V9" t="n">
-        <v>1554.336589436488</v>
+        <v>1596.356283349985</v>
       </c>
       <c r="W9" t="n">
-        <v>1324.219343569775</v>
+        <v>1366.239037483272</v>
       </c>
       <c r="X9" t="n">
-        <v>1134.912265919787</v>
+        <v>1176.931959833284</v>
       </c>
       <c r="Y9" t="n">
-        <v>955.5980489952942</v>
+        <v>997.6177429087911</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.9285204620356</v>
+        <v>558.2307386739903</v>
       </c>
       <c r="C10" t="n">
-        <v>223.9285204620356</v>
+        <v>388.0256207399796</v>
       </c>
       <c r="D10" t="n">
-        <v>223.9285204620356</v>
+        <v>232.3925076424943</v>
       </c>
       <c r="E10" t="n">
-        <v>223.9285204620356</v>
+        <v>76.83369550169681</v>
       </c>
       <c r="F10" t="n">
-        <v>66.60258567500853</v>
+        <v>76.83369550169681</v>
       </c>
       <c r="G10" t="n">
-        <v>66.60258567500853</v>
+        <v>76.83369550169681</v>
       </c>
       <c r="H10" t="n">
-        <v>66.60258567500853</v>
+        <v>76.83369550169681</v>
       </c>
       <c r="I10" t="n">
-        <v>66.60258567500853</v>
+        <v>76.83369550169681</v>
       </c>
       <c r="J10" t="n">
         <v>46.45542532779876</v>
@@ -4989,25 +4989,25 @@
         <v>947.9024478693512</v>
       </c>
       <c r="S10" t="n">
-        <v>745.0863640519005</v>
+        <v>792.3110608910073</v>
       </c>
       <c r="T10" t="n">
-        <v>509.3673122201346</v>
+        <v>792.3110608910073</v>
       </c>
       <c r="U10" t="n">
-        <v>223.9285204620356</v>
+        <v>792.3110608910073</v>
       </c>
       <c r="V10" t="n">
-        <v>223.9285204620356</v>
+        <v>792.3110608910073</v>
       </c>
       <c r="W10" t="n">
-        <v>223.9285204620356</v>
+        <v>792.3110608910073</v>
       </c>
       <c r="X10" t="n">
-        <v>223.9285204620356</v>
+        <v>558.2307386739903</v>
       </c>
       <c r="Y10" t="n">
-        <v>223.9285204620356</v>
+        <v>558.2307386739903</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>963.8105474569304</v>
+        <v>1193.796667235332</v>
       </c>
       <c r="C11" t="n">
-        <v>963.8105474569304</v>
+        <v>1193.796667235332</v>
       </c>
       <c r="D11" t="n">
-        <v>578.3694186735981</v>
+        <v>1193.796667235332</v>
       </c>
       <c r="E11" t="n">
-        <v>578.3694186735981</v>
+        <v>1193.796667235332</v>
       </c>
       <c r="F11" t="n">
-        <v>161.474980203576</v>
+        <v>776.9022287653095</v>
       </c>
       <c r="G11" t="n">
-        <v>161.474980203576</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="H11" t="n">
-        <v>161.474980203576</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I11" t="n">
         <v>46.45542532779876</v>
       </c>
       <c r="J11" t="n">
-        <v>46.45542532779876</v>
+        <v>163.726114069843</v>
       </c>
       <c r="K11" t="n">
-        <v>46.45542532779876</v>
+        <v>598.1136010954091</v>
       </c>
       <c r="L11" t="n">
-        <v>46.45542532779876</v>
+        <v>1172.999489526919</v>
       </c>
       <c r="M11" t="n">
-        <v>621.3413137593084</v>
+        <v>1747.885377958428</v>
       </c>
       <c r="N11" t="n">
-        <v>1196.227202190818</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="O11" t="n">
-        <v>1736.145275733967</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="P11" t="n">
-        <v>2073.911038127401</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="Q11" t="n">
         <v>2322.771266389938</v>
@@ -5068,25 +5068,25 @@
         <v>2322.771266389938</v>
       </c>
       <c r="S11" t="n">
-        <v>2298.264113251571</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="T11" t="n">
-        <v>2077.411137496521</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="U11" t="n">
-        <v>2077.411137496521</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="V11" t="n">
-        <v>1735.30432820004</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="W11" t="n">
-        <v>1364.305293168327</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="X11" t="n">
-        <v>1364.305293168327</v>
+        <v>1990.782122026128</v>
       </c>
       <c r="Y11" t="n">
-        <v>1364.305293168327</v>
+        <v>1594.291412946729</v>
       </c>
     </row>
     <row r="12">
@@ -5132,13 +5132,13 @@
         <v>969.8431521386235</v>
       </c>
       <c r="N12" t="n">
-        <v>1544.729040570133</v>
+        <v>1006.846664600854</v>
       </c>
       <c r="O12" t="n">
-        <v>1856.584205720253</v>
+        <v>1581.732553032364</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.771266389938</v>
+        <v>2047.919613702049</v>
       </c>
       <c r="Q12" t="n">
         <v>2322.771266389938</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>697.7135733087384</v>
+        <v>697.6023408359508</v>
       </c>
       <c r="C13" t="n">
-        <v>697.7135733087384</v>
+        <v>527.39722290194</v>
       </c>
       <c r="D13" t="n">
-        <v>697.7135733087384</v>
+        <v>371.7641098044548</v>
       </c>
       <c r="E13" t="n">
-        <v>660.9631500489259</v>
+        <v>371.7641098044548</v>
       </c>
       <c r="F13" t="n">
-        <v>503.6372152618989</v>
+        <v>214.4381750174278</v>
       </c>
       <c r="G13" t="n">
-        <v>335.6544655722699</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H13" t="n">
-        <v>182.5880556090831</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I13" t="n">
-        <v>57.65248778926543</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J13" t="n">
         <v>46.45542532779876</v>
@@ -5223,28 +5223,28 @@
         <v>1192.711748825081</v>
       </c>
       <c r="R13" t="n">
-        <v>1081.009583341634</v>
+        <v>1192.711748825081</v>
       </c>
       <c r="S13" t="n">
-        <v>882.9215920000397</v>
+        <v>994.6237574834861</v>
       </c>
       <c r="T13" t="n">
-        <v>882.9215920000397</v>
+        <v>994.6237574834861</v>
       </c>
       <c r="U13" t="n">
-        <v>882.9215920000397</v>
+        <v>709.1997641368921</v>
       </c>
       <c r="V13" t="n">
-        <v>882.9215920000397</v>
+        <v>709.1997641368921</v>
       </c>
       <c r="W13" t="n">
-        <v>882.9215920000397</v>
+        <v>697.6023408359508</v>
       </c>
       <c r="X13" t="n">
-        <v>882.9215920000397</v>
+        <v>697.6023408359508</v>
       </c>
       <c r="Y13" t="n">
-        <v>882.9215920000397</v>
+        <v>697.6023408359508</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>891.9217836410867</v>
+        <v>781.2387379222002</v>
       </c>
       <c r="C14" t="n">
-        <v>891.9217836410867</v>
+        <v>781.2387379222002</v>
       </c>
       <c r="D14" t="n">
-        <v>891.9217836410867</v>
+        <v>781.2387379222002</v>
       </c>
       <c r="E14" t="n">
-        <v>891.9217836410867</v>
+        <v>781.2387379222002</v>
       </c>
       <c r="F14" t="n">
-        <v>891.9217836410867</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="G14" t="n">
-        <v>479.3638543279552</v>
+        <v>364.3442994521779</v>
       </c>
       <c r="H14" t="n">
-        <v>161.474980203576</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I14" t="n">
         <v>46.45542532779876</v>
       </c>
       <c r="J14" t="n">
-        <v>46.45542532779876</v>
+        <v>241.4175218674188</v>
       </c>
       <c r="K14" t="n">
-        <v>480.8429123533649</v>
+        <v>675.8050088929849</v>
       </c>
       <c r="L14" t="n">
-        <v>1055.728800784874</v>
+        <v>1250.690897324494</v>
       </c>
       <c r="M14" t="n">
-        <v>1630.614689216384</v>
+        <v>1825.576785756004</v>
       </c>
       <c r="N14" t="n">
-        <v>2205.500577647894</v>
+        <v>2322.771266389938</v>
       </c>
       <c r="O14" t="n">
         <v>2322.771266389938</v>
@@ -5305,25 +5305,25 @@
         <v>2322.771266389938</v>
       </c>
       <c r="S14" t="n">
-        <v>2322.771266389938</v>
+        <v>2170.040188337633</v>
       </c>
       <c r="T14" t="n">
-        <v>2101.918290634888</v>
+        <v>1949.187212582583</v>
       </c>
       <c r="U14" t="n">
-        <v>2019.97190708391</v>
+        <v>1693.482869113091</v>
       </c>
       <c r="V14" t="n">
-        <v>1677.865097787429</v>
+        <v>1351.37605981661</v>
       </c>
       <c r="W14" t="n">
-        <v>1677.865097787429</v>
+        <v>980.377024784897</v>
       </c>
       <c r="X14" t="n">
-        <v>1288.412492720485</v>
+        <v>781.2387379222002</v>
       </c>
       <c r="Y14" t="n">
-        <v>891.9217836410867</v>
+        <v>781.2387379222002</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>46.45542532779876</v>
       </c>
       <c r="K15" t="n">
-        <v>46.45542532779876</v>
+        <v>417.4106833070677</v>
       </c>
       <c r="L15" t="n">
-        <v>131.9265404257233</v>
+        <v>969.8431521386235</v>
       </c>
       <c r="M15" t="n">
-        <v>706.8124288572329</v>
+        <v>969.8431521386235</v>
       </c>
       <c r="N15" t="n">
-        <v>1281.698317288743</v>
+        <v>1006.846664600854</v>
       </c>
       <c r="O15" t="n">
-        <v>1856.584205720252</v>
+        <v>1581.732553032363</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.771266389937</v>
+        <v>2047.919613702049</v>
       </c>
       <c r="Q15" t="n">
         <v>2322.771266389937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.8403554129052</v>
+        <v>202.0142374685963</v>
       </c>
       <c r="C16" t="n">
-        <v>225.6352374788944</v>
+        <v>202.0142374685963</v>
       </c>
       <c r="D16" t="n">
-        <v>225.6352374788944</v>
+        <v>202.0142374685963</v>
       </c>
       <c r="E16" t="n">
-        <v>225.6352374788944</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="F16" t="n">
-        <v>225.6352374788944</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="G16" t="n">
-        <v>57.65248778926543</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="H16" t="n">
-        <v>57.65248778926543</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="I16" t="n">
-        <v>57.65248778926543</v>
+        <v>46.45542532779876</v>
       </c>
       <c r="J16" t="n">
         <v>46.45542532779876</v>
@@ -5463,25 +5463,25 @@
         <v>1192.711748825081</v>
       </c>
       <c r="S16" t="n">
-        <v>1179.23042487792</v>
+        <v>994.6237574834861</v>
       </c>
       <c r="T16" t="n">
-        <v>1179.23042487792</v>
+        <v>760.0639145529473</v>
       </c>
       <c r="U16" t="n">
-        <v>1179.23042487792</v>
+        <v>474.6399212063532</v>
       </c>
       <c r="V16" t="n">
-        <v>913.2510796987444</v>
+        <v>208.6605760271775</v>
       </c>
       <c r="W16" t="n">
-        <v>629.9206776299221</v>
+        <v>208.6605760271775</v>
       </c>
       <c r="X16" t="n">
-        <v>395.8403554129052</v>
+        <v>208.6605760271775</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.8403554129052</v>
+        <v>208.6605760271775</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2116.57765165853</v>
+        <v>2409.415966745243</v>
       </c>
       <c r="C17" t="n">
-        <v>2116.57765165853</v>
+        <v>2016.240465248173</v>
       </c>
       <c r="D17" t="n">
-        <v>1731.136522875197</v>
+        <v>1630.799336464841</v>
       </c>
       <c r="E17" t="n">
-        <v>1328.552997991742</v>
+        <v>1228.215811581386</v>
       </c>
       <c r="F17" t="n">
-        <v>911.6585595217196</v>
+        <v>811.3213731113634</v>
       </c>
       <c r="G17" t="n">
-        <v>499.4814710999809</v>
+        <v>399.1442846896247</v>
       </c>
       <c r="H17" t="n">
-        <v>185.4928837545783</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="I17" t="n">
         <v>85.15569734422211</v>
       </c>
       <c r="J17" t="n">
-        <v>311.7979529370367</v>
+        <v>311.7979529370357</v>
       </c>
       <c r="K17" t="n">
-        <v>793.6657861492938</v>
+        <v>793.6657861492928</v>
       </c>
       <c r="L17" t="n">
-        <v>1439.436378592759</v>
+        <v>1439.436378592758</v>
       </c>
       <c r="M17" t="n">
-        <v>2155.067612222038</v>
+        <v>2155.067612222037</v>
       </c>
       <c r="N17" t="n">
-        <v>2855.254025584654</v>
+        <v>2855.254025584653</v>
       </c>
       <c r="O17" t="n">
-        <v>3458.062573493243</v>
+        <v>3458.062573493242</v>
       </c>
       <c r="P17" t="n">
         <v>3945.169596110462</v>
@@ -5542,25 +5542,25 @@
         <v>4257.784867211105</v>
       </c>
       <c r="S17" t="n">
-        <v>4113.732200971414</v>
+        <v>4257.784867211105</v>
       </c>
       <c r="T17" t="n">
-        <v>3894.546356218436</v>
+        <v>4038.599022458127</v>
       </c>
       <c r="U17" t="n">
-        <v>3638.872480020256</v>
+        <v>4038.599022458127</v>
       </c>
       <c r="V17" t="n">
-        <v>3296.765670723774</v>
+        <v>3966.853061634694</v>
       </c>
       <c r="W17" t="n">
-        <v>2925.766635692062</v>
+        <v>3595.854026602982</v>
       </c>
       <c r="X17" t="n">
-        <v>2536.314030625118</v>
+        <v>3206.401421536038</v>
       </c>
       <c r="Y17" t="n">
-        <v>2139.823321545719</v>
+        <v>2809.910712456639</v>
       </c>
     </row>
     <row r="18">
@@ -5606,16 +5606,16 @@
         <v>866.9635842393099</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.36516269553</v>
+        <v>1657.174353930083</v>
       </c>
       <c r="O18" t="n">
-        <v>1830.865192316919</v>
+        <v>2296.674383551472</v>
       </c>
       <c r="P18" t="n">
-        <v>2335.188650111236</v>
+        <v>2343.839677371197</v>
       </c>
       <c r="Q18" t="n">
-        <v>2335.188650111236</v>
+        <v>2343.839677371197</v>
       </c>
       <c r="R18" t="n">
         <v>2343.839677371197</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>240.7145094850196</v>
+        <v>255.3608152782329</v>
       </c>
       <c r="C19" t="n">
-        <v>240.7145094850196</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7145094850196</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="E19" t="n">
         <v>85.15569734422211</v>
@@ -5697,28 +5697,28 @@
         <v>1386.424325417763</v>
       </c>
       <c r="R19" t="n">
-        <v>1282.403392940811</v>
+        <v>1386.424325417763</v>
       </c>
       <c r="S19" t="n">
-        <v>1087.292539422397</v>
+        <v>1191.313471899349</v>
       </c>
       <c r="T19" t="n">
-        <v>1087.292539422397</v>
+        <v>978.5325438577822</v>
       </c>
       <c r="U19" t="n">
-        <v>801.8778641910553</v>
+        <v>978.5325438577822</v>
       </c>
       <c r="V19" t="n">
-        <v>535.8985190118796</v>
+        <v>712.5531986786065</v>
       </c>
       <c r="W19" t="n">
-        <v>252.5681169430572</v>
+        <v>712.5531986786065</v>
       </c>
       <c r="X19" t="n">
-        <v>252.5681169430572</v>
+        <v>478.4728764615895</v>
       </c>
       <c r="Y19" t="n">
-        <v>252.5681169430572</v>
+        <v>255.3608152782329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2116.57765165853</v>
+        <v>2509.753153155599</v>
       </c>
       <c r="C20" t="n">
         <v>2116.57765165853</v>
@@ -5779,25 +5779,25 @@
         <v>4257.784867211105</v>
       </c>
       <c r="S20" t="n">
-        <v>4113.732200971414</v>
+        <v>4257.784867211105</v>
       </c>
       <c r="T20" t="n">
-        <v>3894.546356218436</v>
+        <v>4257.784867211105</v>
       </c>
       <c r="U20" t="n">
-        <v>3638.872480020256</v>
+        <v>4257.784867211105</v>
       </c>
       <c r="V20" t="n">
-        <v>3638.872480020256</v>
+        <v>4067.190248045051</v>
       </c>
       <c r="W20" t="n">
-        <v>3303.015711516269</v>
+        <v>3696.191213013338</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.563106449325</v>
+        <v>3306.738607946395</v>
       </c>
       <c r="Y20" t="n">
-        <v>2517.072397369926</v>
+        <v>2910.247898866996</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>85.15569734422211</v>
       </c>
       <c r="J21" t="n">
-        <v>85.15569734422211</v>
+        <v>247.1048405457922</v>
       </c>
       <c r="K21" t="n">
-        <v>85.15569734422211</v>
+        <v>650.3093459167092</v>
       </c>
       <c r="L21" t="n">
-        <v>108.2254298115029</v>
+        <v>673.37907838399</v>
       </c>
       <c r="M21" t="n">
-        <v>409.8054202647173</v>
+        <v>712.882332356297</v>
       </c>
       <c r="N21" t="n">
-        <v>1200.01618995549</v>
+        <v>899.6713657412272</v>
       </c>
       <c r="O21" t="n">
-        <v>1839.516219576879</v>
+        <v>1539.171395362616</v>
       </c>
       <c r="P21" t="n">
-        <v>2343.839677371197</v>
+        <v>2043.494853156933</v>
       </c>
       <c r="Q21" t="n">
         <v>2343.839677371197</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>694.7738434742828</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="C22" t="n">
-        <v>524.568725540272</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="D22" t="n">
-        <v>368.9356124427867</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4816321312492</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="F22" t="n">
         <v>85.15569734422211</v>
@@ -5943,19 +5943,19 @@
         <v>1386.424325417763</v>
       </c>
       <c r="U22" t="n">
-        <v>1386.424325417763</v>
+        <v>1101.009650186422</v>
       </c>
       <c r="V22" t="n">
-        <v>1386.424325417763</v>
+        <v>835.0303050072458</v>
       </c>
       <c r="W22" t="n">
-        <v>1103.093923348941</v>
+        <v>551.6999029384235</v>
       </c>
       <c r="X22" t="n">
-        <v>1103.093923348941</v>
+        <v>317.6195807214066</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.9818621655841</v>
+        <v>94.50751953804993</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2337.109261328984</v>
+        <v>2409.415966745243</v>
       </c>
       <c r="C23" t="n">
-        <v>1943.933759831914</v>
+        <v>2016.240465248173</v>
       </c>
       <c r="D23" t="n">
-        <v>1558.492631048582</v>
+        <v>1630.799336464841</v>
       </c>
       <c r="E23" t="n">
-        <v>1155.909106165127</v>
+        <v>1228.215811581385</v>
       </c>
       <c r="F23" t="n">
-        <v>739.0146676951043</v>
+        <v>811.3213731113633</v>
       </c>
       <c r="G23" t="n">
-        <v>326.8375792733656</v>
+        <v>399.1442846896247</v>
       </c>
       <c r="H23" t="n">
         <v>85.15569734422208</v>
@@ -6016,25 +6016,25 @@
         <v>4257.784867211104</v>
       </c>
       <c r="S23" t="n">
-        <v>4113.732200971413</v>
+        <v>4257.784867211104</v>
       </c>
       <c r="T23" t="n">
-        <v>3894.546356218435</v>
+        <v>4257.784867211104</v>
       </c>
       <c r="U23" t="n">
-        <v>3894.546356218435</v>
+        <v>4257.784867211104</v>
       </c>
       <c r="V23" t="n">
-        <v>3894.546356218435</v>
+        <v>3915.678057914623</v>
       </c>
       <c r="W23" t="n">
-        <v>3523.547321186723</v>
+        <v>3544.67902288291</v>
       </c>
       <c r="X23" t="n">
-        <v>3134.09471611978</v>
+        <v>3206.401421536038</v>
       </c>
       <c r="Y23" t="n">
-        <v>2737.604007040381</v>
+        <v>2809.910712456639</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>85.15569734422208</v>
       </c>
       <c r="K24" t="n">
-        <v>85.15569734422208</v>
+        <v>488.360202715139</v>
       </c>
       <c r="L24" t="n">
-        <v>680.9512590981651</v>
+        <v>1084.155764469082</v>
       </c>
       <c r="M24" t="n">
-        <v>1141.450755940941</v>
+        <v>1123.659018441389</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.36516269553</v>
+        <v>1200.01618995549</v>
       </c>
       <c r="O24" t="n">
-        <v>1830.865192316919</v>
+        <v>1839.516219576879</v>
       </c>
       <c r="P24" t="n">
-        <v>2335.188650111236</v>
+        <v>2343.839677371197</v>
       </c>
       <c r="Q24" t="n">
-        <v>2335.188650111236</v>
+        <v>2343.839677371197</v>
       </c>
       <c r="R24" t="n">
         <v>2343.839677371197</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.9194514888314</v>
+        <v>404.515172097914</v>
       </c>
       <c r="C25" t="n">
-        <v>517.9129255059956</v>
+        <v>404.515172097914</v>
       </c>
       <c r="D25" t="n">
-        <v>362.2798124085105</v>
+        <v>404.515172097914</v>
       </c>
       <c r="E25" t="n">
-        <v>362.2798124085105</v>
+        <v>404.515172097914</v>
       </c>
       <c r="F25" t="n">
-        <v>204.9538776214834</v>
+        <v>404.515172097914</v>
       </c>
       <c r="G25" t="n">
-        <v>204.9538776214834</v>
+        <v>236.703254521248</v>
       </c>
       <c r="H25" t="n">
-        <v>204.9538776214834</v>
+        <v>85.15569734422208</v>
       </c>
       <c r="I25" t="n">
         <v>85.15569734422208</v>
@@ -6171,28 +6171,28 @@
         <v>1386.424325417763</v>
       </c>
       <c r="R25" t="n">
-        <v>1386.424325417763</v>
+        <v>1282.403392940811</v>
       </c>
       <c r="S25" t="n">
-        <v>1191.313471899349</v>
+        <v>1282.403392940811</v>
       </c>
       <c r="T25" t="n">
-        <v>1191.313471899349</v>
+        <v>1282.403392940811</v>
       </c>
       <c r="U25" t="n">
-        <v>905.8987966680072</v>
+        <v>996.9887177094697</v>
       </c>
       <c r="V25" t="n">
-        <v>639.9194514888314</v>
+        <v>731.0093725302939</v>
       </c>
       <c r="W25" t="n">
-        <v>639.9194514888314</v>
+        <v>731.0093725302939</v>
       </c>
       <c r="X25" t="n">
-        <v>639.9194514888314</v>
+        <v>496.929050313277</v>
       </c>
       <c r="Y25" t="n">
-        <v>639.9194514888314</v>
+        <v>404.515172097914</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1992.521528275221</v>
+        <v>2509.753153155599</v>
       </c>
       <c r="C26" t="n">
-        <v>1599.346026778151</v>
+        <v>2116.57765165853</v>
       </c>
       <c r="D26" t="n">
-        <v>1213.904897994819</v>
+        <v>1731.136522875197</v>
       </c>
       <c r="E26" t="n">
-        <v>811.3213731113634</v>
+        <v>1328.552997991742</v>
       </c>
       <c r="F26" t="n">
-        <v>811.3213731113634</v>
+        <v>911.6585595217196</v>
       </c>
       <c r="G26" t="n">
-        <v>399.1442846896247</v>
+        <v>499.4814710999809</v>
       </c>
       <c r="H26" t="n">
-        <v>85.15569734422211</v>
+        <v>185.4928837545783</v>
       </c>
       <c r="I26" t="n">
         <v>85.15569734422211</v>
@@ -6253,25 +6253,25 @@
         <v>4257.784867211105</v>
       </c>
       <c r="S26" t="n">
-        <v>4113.732200971414</v>
+        <v>4257.784867211105</v>
       </c>
       <c r="T26" t="n">
-        <v>3894.546356218436</v>
+        <v>4257.784867211105</v>
       </c>
       <c r="U26" t="n">
-        <v>3638.872480020256</v>
+        <v>4257.784867211105</v>
       </c>
       <c r="V26" t="n">
-        <v>3296.765670723774</v>
+        <v>4067.190248045051</v>
       </c>
       <c r="W26" t="n">
-        <v>2925.766635692062</v>
+        <v>3696.191213013338</v>
       </c>
       <c r="X26" t="n">
-        <v>2789.506983066016</v>
+        <v>3306.738607946395</v>
       </c>
       <c r="Y26" t="n">
-        <v>2393.016273986617</v>
+        <v>2910.247898866996</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>85.15569734422211</v>
       </c>
       <c r="J27" t="n">
-        <v>247.1048405457922</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="K27" t="n">
-        <v>247.1048405457922</v>
+        <v>488.3602027151391</v>
       </c>
       <c r="L27" t="n">
-        <v>270.1745730130729</v>
+        <v>1084.155764469082</v>
       </c>
       <c r="M27" t="n">
-        <v>849.7569589866382</v>
+        <v>1123.659018441389</v>
       </c>
       <c r="N27" t="n">
-        <v>899.6713657412272</v>
+        <v>1200.01618995549</v>
       </c>
       <c r="O27" t="n">
-        <v>1539.171395362616</v>
+        <v>1839.516219576879</v>
       </c>
       <c r="P27" t="n">
-        <v>2043.494853156933</v>
+        <v>2343.839677371197</v>
       </c>
       <c r="Q27" t="n">
         <v>2343.839677371197</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>526.7065527325201</v>
+        <v>772.2755293056227</v>
       </c>
       <c r="C28" t="n">
-        <v>356.5014347985093</v>
+        <v>602.070411371612</v>
       </c>
       <c r="D28" t="n">
-        <v>356.5014347985093</v>
+        <v>446.4372982741267</v>
       </c>
       <c r="E28" t="n">
-        <v>356.5014347985093</v>
+        <v>290.8784861333292</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5014347985093</v>
+        <v>236.703254521248</v>
       </c>
       <c r="G28" t="n">
-        <v>356.5014347985093</v>
+        <v>236.703254521248</v>
       </c>
       <c r="H28" t="n">
-        <v>204.9538776214834</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="I28" t="n">
         <v>85.15569734422211</v>
@@ -6411,25 +6411,25 @@
         <v>1386.424325417763</v>
       </c>
       <c r="S28" t="n">
-        <v>1386.424325417763</v>
+        <v>1191.313471899349</v>
       </c>
       <c r="T28" t="n">
-        <v>1386.424325417763</v>
+        <v>957.483547996924</v>
       </c>
       <c r="U28" t="n">
-        <v>1267.229338201716</v>
+        <v>957.483547996924</v>
       </c>
       <c r="V28" t="n">
-        <v>1267.229338201716</v>
+        <v>957.483547996924</v>
       </c>
       <c r="W28" t="n">
-        <v>983.8989361328937</v>
+        <v>957.483547996924</v>
       </c>
       <c r="X28" t="n">
-        <v>749.8186139158768</v>
+        <v>957.483547996924</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.7065527325201</v>
+        <v>957.483547996924</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1739.328575834322</v>
+        <v>2409.415966745243</v>
       </c>
       <c r="C29" t="n">
-        <v>1346.153074337252</v>
+        <v>2016.240465248173</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.622248043102</v>
+        <v>1630.799336464841</v>
       </c>
       <c r="E29" t="n">
-        <v>816.0387231596469</v>
+        <v>1228.215811581385</v>
       </c>
       <c r="F29" t="n">
-        <v>399.1442846896247</v>
+        <v>811.3213731113633</v>
       </c>
       <c r="G29" t="n">
         <v>399.1442846896247</v>
@@ -6499,16 +6499,16 @@
         <v>3638.872480020255</v>
       </c>
       <c r="V29" t="n">
-        <v>3296.765670723773</v>
+        <v>3638.872480020255</v>
       </c>
       <c r="W29" t="n">
-        <v>2925.766635692061</v>
+        <v>3595.854026602982</v>
       </c>
       <c r="X29" t="n">
-        <v>2536.314030625118</v>
+        <v>3206.401421536038</v>
       </c>
       <c r="Y29" t="n">
-        <v>2139.823321545718</v>
+        <v>2809.910712456639</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>85.15569734422208</v>
       </c>
       <c r="K30" t="n">
-        <v>85.15569734422208</v>
+        <v>488.360202715139</v>
       </c>
       <c r="L30" t="n">
-        <v>142.9011657244296</v>
+        <v>1084.155764469082</v>
       </c>
       <c r="M30" t="n">
-        <v>901.6393201522366</v>
+        <v>1123.659018441389</v>
       </c>
       <c r="N30" t="n">
-        <v>1691.85008984301</v>
+        <v>1200.01618995549</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.350119464399</v>
+        <v>1839.516219576879</v>
       </c>
       <c r="P30" t="n">
         <v>2343.839677371197</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>681.6392871622024</v>
+        <v>717.4742199824263</v>
       </c>
       <c r="C31" t="n">
-        <v>681.6392871622024</v>
+        <v>717.4742199824263</v>
       </c>
       <c r="D31" t="n">
-        <v>681.6392871622024</v>
+        <v>561.8411068849412</v>
       </c>
       <c r="E31" t="n">
-        <v>681.6392871622024</v>
+        <v>561.8411068849412</v>
       </c>
       <c r="F31" t="n">
-        <v>524.3133523751754</v>
+        <v>404.515172097914</v>
       </c>
       <c r="G31" t="n">
-        <v>356.5014347985093</v>
+        <v>236.703254521248</v>
       </c>
       <c r="H31" t="n">
-        <v>204.9538776214834</v>
+        <v>85.15569734422208</v>
       </c>
       <c r="I31" t="n">
         <v>85.15569734422208</v>
@@ -6645,28 +6645,28 @@
         <v>1386.424325417763</v>
       </c>
       <c r="R31" t="n">
-        <v>1282.403392940811</v>
+        <v>1386.424325417763</v>
       </c>
       <c r="S31" t="n">
-        <v>1087.292539422397</v>
+        <v>1191.313471899349</v>
       </c>
       <c r="T31" t="n">
-        <v>853.4626155199721</v>
+        <v>957.483547996924</v>
       </c>
       <c r="U31" t="n">
-        <v>853.4626155199721</v>
+        <v>951.5545421994433</v>
       </c>
       <c r="V31" t="n">
-        <v>681.6392871622024</v>
+        <v>951.5545421994433</v>
       </c>
       <c r="W31" t="n">
-        <v>681.6392871622024</v>
+        <v>951.5545421994433</v>
       </c>
       <c r="X31" t="n">
-        <v>681.6392871622024</v>
+        <v>717.4742199824263</v>
       </c>
       <c r="Y31" t="n">
-        <v>681.6392871622024</v>
+        <v>717.4742199824263</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2366.001487064216</v>
+        <v>2409.415966745243</v>
       </c>
       <c r="C32" t="n">
-        <v>1972.825985567146</v>
+        <v>2016.240465248173</v>
       </c>
       <c r="D32" t="n">
-        <v>1587.384856783814</v>
+        <v>1630.799336464841</v>
       </c>
       <c r="E32" t="n">
         <v>1228.215811581386</v>
@@ -6727,25 +6727,25 @@
         <v>4257.784867211105</v>
       </c>
       <c r="S32" t="n">
-        <v>4113.732200971414</v>
+        <v>4257.784867211105</v>
       </c>
       <c r="T32" t="n">
-        <v>3894.546356218436</v>
+        <v>4257.784867211105</v>
       </c>
       <c r="U32" t="n">
-        <v>3894.546356218436</v>
+        <v>4257.784867211105</v>
       </c>
       <c r="V32" t="n">
-        <v>3552.439546921955</v>
+        <v>3966.853061634694</v>
       </c>
       <c r="W32" t="n">
-        <v>3552.439546921955</v>
+        <v>3595.854026602982</v>
       </c>
       <c r="X32" t="n">
-        <v>3162.986941855012</v>
+        <v>3206.401421536038</v>
       </c>
       <c r="Y32" t="n">
-        <v>2766.496232775612</v>
+        <v>2809.910712456639</v>
       </c>
     </row>
     <row r="33">
@@ -6788,13 +6788,13 @@
         <v>1084.155764469082</v>
       </c>
       <c r="M33" t="n">
-        <v>1842.893918896889</v>
+        <v>1123.659018441389</v>
       </c>
       <c r="N33" t="n">
-        <v>2300.131055733991</v>
+        <v>1200.01618995549</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.350119464399</v>
+        <v>1839.516219576879</v>
       </c>
       <c r="P33" t="n">
         <v>2343.839677371197</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3395.673894168518</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="C34" t="n">
-        <v>3395.673894168518</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="D34" t="n">
-        <v>3395.673894168518</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="E34" t="n">
-        <v>3395.673894168518</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="F34" t="n">
-        <v>3395.673894168518</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="G34" t="n">
-        <v>3227.861976591852</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="H34" t="n">
-        <v>3076.314419414826</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="I34" t="n">
-        <v>2956.516239137564</v>
+        <v>85.15569734422211</v>
       </c>
       <c r="J34" t="n">
-        <v>2957.379479780865</v>
+        <v>86.01893798752324</v>
       </c>
       <c r="K34" t="n">
-        <v>3089.56049566471</v>
+        <v>218.1999538713676</v>
       </c>
       <c r="L34" t="n">
-        <v>3318.113649736663</v>
+        <v>446.7531079433209</v>
       </c>
       <c r="M34" t="n">
-        <v>3572.332899673237</v>
+        <v>700.9723578798947</v>
       </c>
       <c r="N34" t="n">
-        <v>3821.835037097959</v>
+        <v>950.4744953046172</v>
       </c>
       <c r="O34" t="n">
-        <v>4045.790134013269</v>
+        <v>1174.429592219928</v>
       </c>
       <c r="P34" t="n">
-        <v>4218.076538318173</v>
+        <v>1346.715996524832</v>
       </c>
       <c r="Q34" t="n">
-        <v>4257.784867211105</v>
+        <v>1386.424325417763</v>
       </c>
       <c r="R34" t="n">
-        <v>4153.763934734153</v>
+        <v>1386.424325417763</v>
       </c>
       <c r="S34" t="n">
-        <v>3958.653081215738</v>
+        <v>1191.313471899349</v>
       </c>
       <c r="T34" t="n">
-        <v>3958.653081215738</v>
+        <v>957.483547996924</v>
       </c>
       <c r="U34" t="n">
-        <v>3673.238405984397</v>
+        <v>672.0688727655825</v>
       </c>
       <c r="V34" t="n">
-        <v>3673.238405984397</v>
+        <v>406.0895275864067</v>
       </c>
       <c r="W34" t="n">
-        <v>3395.673894168518</v>
+        <v>406.0895275864067</v>
       </c>
       <c r="X34" t="n">
-        <v>3395.673894168518</v>
+        <v>406.0895275864067</v>
       </c>
       <c r="Y34" t="n">
-        <v>3395.673894168518</v>
+        <v>182.97746640305</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1739.328575834322</v>
+        <v>2409.415966745243</v>
       </c>
       <c r="C35" t="n">
-        <v>1346.153074337252</v>
+        <v>2016.240465248173</v>
       </c>
       <c r="D35" t="n">
-        <v>960.7119455539198</v>
+        <v>1630.799336464841</v>
       </c>
       <c r="E35" t="n">
-        <v>558.1284206704643</v>
+        <v>1228.215811581385</v>
       </c>
       <c r="F35" t="n">
-        <v>399.1442846896247</v>
+        <v>811.3213731113633</v>
       </c>
       <c r="G35" t="n">
         <v>399.1442846896247</v>
@@ -6964,25 +6964,25 @@
         <v>4257.784867211104</v>
       </c>
       <c r="S35" t="n">
-        <v>4113.732200971413</v>
+        <v>4257.784867211104</v>
       </c>
       <c r="T35" t="n">
-        <v>3894.546356218435</v>
+        <v>4038.599022458126</v>
       </c>
       <c r="U35" t="n">
-        <v>3638.872480020255</v>
+        <v>4038.599022458126</v>
       </c>
       <c r="V35" t="n">
-        <v>3296.765670723773</v>
+        <v>3966.853061634694</v>
       </c>
       <c r="W35" t="n">
-        <v>2925.766635692061</v>
+        <v>3595.854026602982</v>
       </c>
       <c r="X35" t="n">
-        <v>2536.314030625118</v>
+        <v>3206.401421536038</v>
       </c>
       <c r="Y35" t="n">
-        <v>2139.823321545718</v>
+        <v>2809.910712456639</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>85.15569734422208</v>
       </c>
       <c r="K36" t="n">
-        <v>85.15569734422208</v>
+        <v>488.360202715139</v>
       </c>
       <c r="L36" t="n">
-        <v>680.9512590981651</v>
+        <v>1084.155764469082</v>
       </c>
       <c r="M36" t="n">
-        <v>1439.689413525972</v>
+        <v>1123.659018441389</v>
       </c>
       <c r="N36" t="n">
-        <v>1691.85008984301</v>
+        <v>1200.01618995549</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.350119464399</v>
+        <v>1839.516219576879</v>
       </c>
       <c r="P36" t="n">
         <v>2343.839677371197</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.838624549308</v>
+        <v>667.693360036792</v>
       </c>
       <c r="C37" t="n">
-        <v>517.838624549308</v>
+        <v>667.693360036792</v>
       </c>
       <c r="D37" t="n">
-        <v>517.838624549308</v>
+        <v>512.0602469393068</v>
       </c>
       <c r="E37" t="n">
-        <v>362.2798124085105</v>
+        <v>356.5014347985093</v>
       </c>
       <c r="F37" t="n">
-        <v>204.9538776214834</v>
+        <v>356.5014347985093</v>
       </c>
       <c r="G37" t="n">
-        <v>204.9538776214834</v>
+        <v>356.5014347985093</v>
       </c>
       <c r="H37" t="n">
         <v>204.9538776214834</v>
@@ -7125,22 +7125,22 @@
         <v>1386.424325417763</v>
       </c>
       <c r="T37" t="n">
-        <v>1152.594401515338</v>
+        <v>1386.424325417763</v>
       </c>
       <c r="U37" t="n">
-        <v>867.1797262839968</v>
+        <v>1386.424325417763</v>
       </c>
       <c r="V37" t="n">
-        <v>703.0466432406092</v>
+        <v>1386.424325417763</v>
       </c>
       <c r="W37" t="n">
-        <v>703.0466432406092</v>
+        <v>1310.093762128467</v>
       </c>
       <c r="X37" t="n">
-        <v>703.0466432406092</v>
+        <v>1076.01343991145</v>
       </c>
       <c r="Y37" t="n">
-        <v>703.0466432406092</v>
+        <v>852.9013787280933</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>1739.328575834322</v>
       </c>
       <c r="C38" t="n">
-        <v>1739.328575834322</v>
+        <v>1346.153074337252</v>
       </c>
       <c r="D38" t="n">
-        <v>1731.136522875197</v>
+        <v>1228.215811581385</v>
       </c>
       <c r="E38" t="n">
-        <v>1328.552997991742</v>
+        <v>1228.215811581385</v>
       </c>
       <c r="F38" t="n">
-        <v>911.6585595217196</v>
+        <v>811.3213731113633</v>
       </c>
       <c r="G38" t="n">
-        <v>499.4814710999809</v>
+        <v>399.1442846896247</v>
       </c>
       <c r="H38" t="n">
-        <v>185.4928837545783</v>
+        <v>85.15569734422208</v>
       </c>
       <c r="I38" t="n">
         <v>85.15569734422208</v>
@@ -7256,22 +7256,22 @@
         <v>85.15569734422208</v>
       </c>
       <c r="K39" t="n">
-        <v>85.15569734422208</v>
+        <v>488.360202715139</v>
       </c>
       <c r="L39" t="n">
-        <v>680.9512590981651</v>
+        <v>1084.155764469082</v>
       </c>
       <c r="M39" t="n">
-        <v>1341.590858874157</v>
+        <v>1123.659018441389</v>
       </c>
       <c r="N39" t="n">
-        <v>1391.505265628746</v>
+        <v>1200.01618995549</v>
       </c>
       <c r="O39" t="n">
-        <v>2031.005295250135</v>
+        <v>1839.516219576879</v>
       </c>
       <c r="P39" t="n">
-        <v>2043.494853156933</v>
+        <v>2343.839677371197</v>
       </c>
       <c r="Q39" t="n">
         <v>2343.839677371197</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3199.948383548407</v>
+        <v>317.8699790359987</v>
       </c>
       <c r="C40" t="n">
-        <v>3029.743265614396</v>
+        <v>317.8699790359987</v>
       </c>
       <c r="D40" t="n">
-        <v>3029.743265614396</v>
+        <v>317.8699790359987</v>
       </c>
       <c r="E40" t="n">
-        <v>3029.743265614396</v>
+        <v>162.3111668952012</v>
       </c>
       <c r="F40" t="n">
-        <v>2956.516239137563</v>
+        <v>85.15569734422208</v>
       </c>
       <c r="G40" t="n">
-        <v>2956.516239137563</v>
+        <v>85.15569734422208</v>
       </c>
       <c r="H40" t="n">
-        <v>2956.516239137563</v>
+        <v>85.15569734422208</v>
       </c>
       <c r="I40" t="n">
-        <v>2956.516239137563</v>
+        <v>85.15569734422208</v>
       </c>
       <c r="J40" t="n">
-        <v>2957.379479780865</v>
+        <v>86.01893798752322</v>
       </c>
       <c r="K40" t="n">
-        <v>3089.560495664709</v>
+        <v>218.1999538713675</v>
       </c>
       <c r="L40" t="n">
-        <v>3318.113649736662</v>
+        <v>446.7531079433207</v>
       </c>
       <c r="M40" t="n">
-        <v>3572.332899673236</v>
+        <v>700.9723578798946</v>
       </c>
       <c r="N40" t="n">
-        <v>3821.835037097958</v>
+        <v>950.4744953046172</v>
       </c>
       <c r="O40" t="n">
-        <v>4045.790134013268</v>
+        <v>1174.429592219928</v>
       </c>
       <c r="P40" t="n">
-        <v>4218.076538318172</v>
+        <v>1346.715996524832</v>
       </c>
       <c r="Q40" t="n">
-        <v>4257.784867211104</v>
+        <v>1386.424325417763</v>
       </c>
       <c r="R40" t="n">
-        <v>4257.784867211104</v>
+        <v>1386.424325417763</v>
       </c>
       <c r="S40" t="n">
-        <v>4257.784867211104</v>
+        <v>1386.424325417763</v>
       </c>
       <c r="T40" t="n">
-        <v>4257.784867211104</v>
+        <v>1152.594401515338</v>
       </c>
       <c r="U40" t="n">
-        <v>3972.370191979762</v>
+        <v>867.1797262839968</v>
       </c>
       <c r="V40" t="n">
-        <v>3706.390846800587</v>
+        <v>601.2003811048211</v>
       </c>
       <c r="W40" t="n">
-        <v>3423.060444731764</v>
+        <v>317.8699790359987</v>
       </c>
       <c r="X40" t="n">
-        <v>3423.060444731764</v>
+        <v>317.8699790359987</v>
       </c>
       <c r="Y40" t="n">
-        <v>3199.948383548407</v>
+        <v>317.8699790359987</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1536.827952243595</v>
+        <v>794.2263972357164</v>
       </c>
       <c r="C41" t="n">
-        <v>1143.652450746525</v>
+        <v>401.0508957386469</v>
       </c>
       <c r="D41" t="n">
-        <v>758.2113219631931</v>
+        <v>401.0508957386469</v>
       </c>
       <c r="E41" t="n">
-        <v>758.2113219631931</v>
+        <v>401.0508957386469</v>
       </c>
       <c r="F41" t="n">
-        <v>758.2113219631931</v>
+        <v>401.0508957386469</v>
       </c>
       <c r="G41" t="n">
-        <v>360.4440126732014</v>
+        <v>46.45542532779874</v>
       </c>
       <c r="H41" t="n">
         <v>46.45542532779874</v>
@@ -7420,19 +7420,19 @@
         <v>1103.209146971565</v>
       </c>
       <c r="M41" t="n">
-        <v>1124.611679474514</v>
+        <v>1149.552560516179</v>
       </c>
       <c r="N41" t="n">
-        <v>1149.359502775261</v>
+        <v>1724.438448947689</v>
       </c>
       <c r="O41" t="n">
-        <v>1724.245391206771</v>
+        <v>2299.324337379198</v>
       </c>
       <c r="P41" t="n">
-        <v>2211.35241382399</v>
+        <v>2299.324337379198</v>
       </c>
       <c r="Q41" t="n">
-        <v>2322.771266389937</v>
+        <v>2299.324337379198</v>
       </c>
       <c r="R41" t="n">
         <v>2322.771266389937</v>
@@ -7447,16 +7447,16 @@
         <v>2322.771266389937</v>
       </c>
       <c r="V41" t="n">
-        <v>2322.771266389937</v>
+        <v>1980.664457093455</v>
       </c>
       <c r="W41" t="n">
-        <v>2322.771266389937</v>
+        <v>1980.664457093455</v>
       </c>
       <c r="X41" t="n">
-        <v>1933.318661322994</v>
+        <v>1591.211852026512</v>
       </c>
       <c r="Y41" t="n">
-        <v>1536.827952243595</v>
+        <v>1194.721142947113</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>46.45542532779874</v>
       </c>
       <c r="J42" t="n">
-        <v>208.4045685293688</v>
+        <v>149.7709773396635</v>
       </c>
       <c r="K42" t="n">
-        <v>208.4045685293688</v>
+        <v>552.9754827105804</v>
       </c>
       <c r="L42" t="n">
-        <v>231.4743009966496</v>
+        <v>1127.86137114209</v>
       </c>
       <c r="M42" t="n">
-        <v>342.0483192232134</v>
+        <v>1167.364625114397</v>
       </c>
       <c r="N42" t="n">
-        <v>916.9342076547229</v>
+        <v>1217.279031868986</v>
       </c>
       <c r="O42" t="n">
-        <v>1491.820096086232</v>
+        <v>1792.164920300495</v>
       </c>
       <c r="P42" t="n">
-        <v>1996.143553880549</v>
+        <v>2296.488378094813</v>
       </c>
       <c r="Q42" t="n">
         <v>2296.488378094813</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>202.088538425284</v>
+        <v>263.3683230930316</v>
       </c>
       <c r="C43" t="n">
-        <v>202.088538425284</v>
+        <v>263.3683230930316</v>
       </c>
       <c r="D43" t="n">
-        <v>46.45542532779874</v>
+        <v>263.3683230930316</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45542532779874</v>
+        <v>263.3683230930316</v>
       </c>
       <c r="F43" t="n">
-        <v>46.45542532779874</v>
+        <v>198.0029825048246</v>
       </c>
       <c r="G43" t="n">
-        <v>46.45542532779874</v>
+        <v>198.0029825048246</v>
       </c>
       <c r="H43" t="n">
         <v>46.45542532779874</v>
@@ -7596,25 +7596,25 @@
         <v>1243.703120924388</v>
       </c>
       <c r="S43" t="n">
-        <v>1243.703120924388</v>
+        <v>1048.592267405974</v>
       </c>
       <c r="T43" t="n">
-        <v>1243.703120924388</v>
+        <v>814.7623435035489</v>
       </c>
       <c r="U43" t="n">
-        <v>958.2884456930465</v>
+        <v>529.3476682722073</v>
       </c>
       <c r="V43" t="n">
-        <v>942.6113238944799</v>
+        <v>263.3683230930316</v>
       </c>
       <c r="W43" t="n">
-        <v>659.2809218256575</v>
+        <v>263.3683230930316</v>
       </c>
       <c r="X43" t="n">
-        <v>425.2005996086406</v>
+        <v>263.3683230930316</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.088538425284</v>
+        <v>263.3683230930316</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>777.3384511432237</v>
+        <v>1254.391540130062</v>
       </c>
       <c r="C44" t="n">
-        <v>777.3384511432237</v>
+        <v>861.2160386329929</v>
       </c>
       <c r="D44" t="n">
-        <v>777.3384511432237</v>
+        <v>861.2160386329929</v>
       </c>
       <c r="E44" t="n">
-        <v>777.3384511432237</v>
+        <v>458.6325137495375</v>
       </c>
       <c r="F44" t="n">
-        <v>360.4440126732014</v>
+        <v>458.6325137495375</v>
       </c>
       <c r="G44" t="n">
-        <v>360.4440126732014</v>
+        <v>46.45542532779874</v>
       </c>
       <c r="H44" t="n">
         <v>46.45542532779874</v>
@@ -7648,22 +7648,22 @@
         <v>46.45542532779874</v>
       </c>
       <c r="J44" t="n">
-        <v>46.45542532779874</v>
+        <v>273.0976809206123</v>
       </c>
       <c r="K44" t="n">
-        <v>528.3232585400558</v>
+        <v>273.0976809206123</v>
       </c>
       <c r="L44" t="n">
-        <v>1103.209146971565</v>
+        <v>847.9835693521218</v>
       </c>
       <c r="M44" t="n">
-        <v>1678.095035403075</v>
+        <v>869.3861018550709</v>
       </c>
       <c r="N44" t="n">
-        <v>2252.980923834584</v>
+        <v>1260.778355341208</v>
       </c>
       <c r="O44" t="n">
-        <v>2322.771266389937</v>
+        <v>1835.664243772718</v>
       </c>
       <c r="P44" t="n">
         <v>2322.771266389937</v>
@@ -7678,22 +7678,22 @@
         <v>2322.771266389937</v>
       </c>
       <c r="T44" t="n">
-        <v>2135.570776736542</v>
+        <v>2322.771266389937</v>
       </c>
       <c r="U44" t="n">
-        <v>1879.896900538361</v>
+        <v>2322.771266389937</v>
       </c>
       <c r="V44" t="n">
-        <v>1537.79009124188</v>
+        <v>2322.771266389937</v>
       </c>
       <c r="W44" t="n">
-        <v>1166.791056210167</v>
+        <v>2322.771266389937</v>
       </c>
       <c r="X44" t="n">
-        <v>777.3384511432237</v>
+        <v>2051.376994920858</v>
       </c>
       <c r="Y44" t="n">
-        <v>777.3384511432237</v>
+        <v>1654.886285841459</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>46.45542532779874</v>
       </c>
       <c r="K45" t="n">
-        <v>46.45542532779874</v>
+        <v>449.6599306987157</v>
       </c>
       <c r="L45" t="n">
-        <v>621.3413137593082</v>
+        <v>1024.545819130225</v>
       </c>
       <c r="M45" t="n">
-        <v>1142.878070584956</v>
+        <v>1064.049073102532</v>
       </c>
       <c r="N45" t="n">
-        <v>1717.763959016465</v>
+        <v>1113.963479857121</v>
       </c>
       <c r="O45" t="n">
-        <v>2292.649847447975</v>
+        <v>1688.849368288631</v>
       </c>
       <c r="P45" t="n">
-        <v>2305.139405354773</v>
+        <v>2193.172826082948</v>
       </c>
       <c r="Q45" t="n">
-        <v>2305.139405354773</v>
+        <v>2296.488378094813</v>
       </c>
       <c r="R45" t="n">
         <v>2305.139405354773</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>954.1309403840619</v>
+        <v>967.4051811916243</v>
       </c>
       <c r="C46" t="n">
-        <v>954.1309403840619</v>
+        <v>797.2000632576135</v>
       </c>
       <c r="D46" t="n">
-        <v>798.4978272865767</v>
+        <v>641.5669501601283</v>
       </c>
       <c r="E46" t="n">
-        <v>642.9390151457792</v>
+        <v>486.0081380193308</v>
       </c>
       <c r="F46" t="n">
-        <v>485.6130803587521</v>
+        <v>334.0655231817262</v>
       </c>
       <c r="G46" t="n">
-        <v>317.801162782086</v>
+        <v>166.2536056050601</v>
       </c>
       <c r="H46" t="n">
         <v>166.2536056050601</v>
@@ -7833,25 +7833,25 @@
         <v>1347.72405340134</v>
       </c>
       <c r="S46" t="n">
-        <v>1188.211262601079</v>
+        <v>1152.613199882926</v>
       </c>
       <c r="T46" t="n">
-        <v>1188.211262601079</v>
+        <v>1152.613199882926</v>
       </c>
       <c r="U46" t="n">
-        <v>1188.211262601079</v>
+        <v>1152.613199882926</v>
       </c>
       <c r="V46" t="n">
-        <v>1188.211262601079</v>
+        <v>1152.613199882926</v>
       </c>
       <c r="W46" t="n">
-        <v>1188.211262601079</v>
+        <v>1152.613199882926</v>
       </c>
       <c r="X46" t="n">
-        <v>954.1309403840619</v>
+        <v>1152.613199882926</v>
       </c>
       <c r="Y46" t="n">
-        <v>954.1309403840619</v>
+        <v>1152.613199882926</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>271.0551987388116</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O2" t="n">
         <v>379.5248125622476</v>
@@ -8063,22 +8063,22 @@
         <v>319.5579104714845</v>
       </c>
       <c r="L3" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>197.4002179655265</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8218,25 +8218,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>363.7280257865542</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>379.0794664759352</v>
+        <v>183.0754269340418</v>
       </c>
       <c r="O5" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,13 +8297,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M6" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>315.3330879923178</v>
@@ -8312,7 +8312,7 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8455,13 +8455,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>468.6214332534493</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>288.5753946608799</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8540,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>673.0799386467963</v>
+        <v>648.820412750545</v>
       </c>
       <c r="N9" t="n">
-        <v>119.8411677071878</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>66.85930902235421</v>
+        <v>185.3145501759342</v>
       </c>
       <c r="K11" t="n">
-        <v>66.89160419125324</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>58.75652045681615</v>
+        <v>639.4493370543006</v>
       </c>
       <c r="M11" t="n">
-        <v>625.2777017866046</v>
+        <v>625.2777017866044</v>
       </c>
       <c r="N11" t="n">
         <v>622.9698637135103</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>48.67649131215622</v>
       </c>
       <c r="P11" t="n">
-        <v>405.3739692167747</v>
+        <v>64.19643144562944</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>79.83741748749453</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8780,16 +8780,16 @@
         <v>11.2115456193539</v>
       </c>
       <c r="N12" t="n">
-        <v>582.7408770590584</v>
+        <v>39.42534577695836</v>
       </c>
       <c r="O12" t="n">
-        <v>331.4675469479881</v>
+        <v>597.1551462221198</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>66.85930902235421</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -8938,10 +8938,10 @@
         <v>625.2777017866046</v>
       </c>
       <c r="N14" t="n">
-        <v>622.9698637135103</v>
+        <v>544.4936942210095</v>
       </c>
       <c r="O14" t="n">
-        <v>167.1317324657361</v>
+        <v>48.67649131215622</v>
       </c>
       <c r="P14" t="n">
         <v>64.19643144562944</v>
@@ -9008,16 +9008,16 @@
         <v>52.17609846406338</v>
       </c>
       <c r="K15" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>106.8328035889202</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>591.9043622168383</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N15" t="n">
-        <v>582.7408770590584</v>
+        <v>39.4253457769579</v>
       </c>
       <c r="O15" t="n">
         <v>597.1551462221198</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9181,7 +9181,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475137</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9254,19 +9254,19 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>277.2597693955871</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>35.02599587164319</v>
       </c>
       <c r="Q18" t="n">
         <v>24.34195855048694</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>62.27539353196327</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>33.11702199813872</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>5.28849158718134</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>264.7239762433409</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>138.2571986165064</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9500,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>24.34195855048694</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>62.27539353196327</v>
@@ -9719,16 +9719,16 @@
         <v>33.11702199813872</v>
       </c>
       <c r="K24" t="n">
-        <v>5.28849158718134</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>425.2487301721908</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>26.70986339344684</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9740,7 +9740,7 @@
         <v>24.34195855048694</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>62.27539353196327</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>33.11702199813872</v>
       </c>
       <c r="K27" t="n">
-        <v>5.28849158718134</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>545.5344767689479</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>26.70986339344684</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>24.34195855048694</v>
       </c>
       <c r="R27" t="n">
         <v>62.27539353196327</v>
@@ -10193,22 +10193,22 @@
         <v>33.11702199813872</v>
       </c>
       <c r="K30" t="n">
-        <v>5.28849158718134</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>35.02599587164317</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>26.70986339344684</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>24.34195855048694</v>
@@ -10436,16 +10436,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>411.4371010934474</v>
+        <v>26.70986339344684</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>24.34195855048694</v>
@@ -10667,22 +10667,22 @@
         <v>33.11702199813872</v>
       </c>
       <c r="K36" t="n">
-        <v>5.28849158718134</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>204.2891611741903</v>
+        <v>26.70986339344684</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>24.34195855048694</v>
@@ -10904,25 +10904,25 @@
         <v>33.11702199813872</v>
       </c>
       <c r="K39" t="n">
-        <v>5.28849158718134</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>627.4104503067524</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>26.70986339344684</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>24.34195855048694</v>
       </c>
       <c r="R39" t="n">
         <v>62.27539353196327</v>
@@ -11068,22 +11068,22 @@
         <v>579.9507835755154</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>25.19280913299493</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>555.6950152835983</v>
       </c>
       <c r="O41" t="n">
         <v>565.843576227378</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>9.978689174564153</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.6664465163625</v>
+        <v>39.12215099520395</v>
       </c>
       <c r="R41" t="n">
-        <v>78.83384832433899</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>137.4761654444667</v>
       </c>
       <c r="K42" t="n">
-        <v>5.28849158718134</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>557.3900565295239</v>
       </c>
       <c r="M42" t="n">
-        <v>71.7886507618756</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>530.2742239160813</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>549.1584087889913</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>24.34195855048694</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>34.85914836256281</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>18.93165854813107</v>
       </c>
       <c r="L44" t="n">
         <v>579.9507835755154</v>
       </c>
       <c r="M44" t="n">
-        <v>559.0740968975356</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>555.6950152835983</v>
+        <v>370.3479092781719</v>
       </c>
       <c r="O44" t="n">
-        <v>55.646055140351</v>
+        <v>565.843576227378</v>
       </c>
       <c r="P44" t="n">
-        <v>9.978689174564153</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
         <v>39.12215099520395</v>
@@ -11378,28 +11378,28 @@
         <v>33.11702199813872</v>
       </c>
       <c r="K45" t="n">
-        <v>5.28849158718134</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>557.3900565295239</v>
       </c>
       <c r="M45" t="n">
-        <v>486.9025281346875</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>530.2742239160813</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>549.1584087889913</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>24.34195855048694</v>
+        <v>128.7011019968151</v>
       </c>
       <c r="R45" t="n">
-        <v>62.27539353196327</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>126.9416856647985</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U11" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>56.88882609610158</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>117.6203049921751</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>269.0156489802023</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23506,16 +23506,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>172.0203803193293</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>188.4111750222039</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>176.7760633313929</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H16" t="n">
         <v>151.5357458635549</v>
@@ -23676,7 +23676,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>110.585143828612</v>
       </c>
       <c r="S16" t="n">
-        <v>182.7606007204897</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>373.4765850659651</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>99.33381454625263</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>142.612139577294</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1171374361989</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>267.6572399883185</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.6208671209311</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.9807231521825</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>231.4916246634004</v>
+        <v>20.83850590224958</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5605284790281</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>142.612139577294</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.9939863054483</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1171374361989</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>149.9970682291232</v>
       </c>
       <c r="W20" t="n">
-        <v>34.79084386244824</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>174.0976345324987</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>28.81378351096731</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.1337984008994</v>
@@ -24183,16 +24183,16 @@
         <v>231.4916246634004</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5605284790281</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>71.58363836209645</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>99.33381454625263</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>142.612139577294</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.9939863054483</v>
       </c>
       <c r="U23" t="n">
         <v>253.1171374361989</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>50.66325368287096</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>47.71660603166323</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.1337984008994</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>150.0320816052556</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>118.6001984744887</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.9807231521825</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.1597449832303</v>
       </c>
       <c r="T25" t="n">
         <v>231.4916246634004</v>
@@ -24429,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>129.3912011383138</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.33381454625263</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>142.612139577294</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.9939863054483</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1171374361989</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>149.9970682291232</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>250.6610229164888</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>102.1191961431964</v>
       </c>
       <c r="G28" t="n">
         <v>166.1337984008994</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>118.6001984744887</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>102.9807231521825</v>
       </c>
       <c r="S28" t="n">
-        <v>193.1597449832303</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>231.4916246634004</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>164.5574911351414</v>
+        <v>282.5605284790281</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>255.3311994642908</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.0553175375213</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>324.700775798295</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>118.6001984744887</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.9807231521825</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5605284790281</v>
+        <v>276.6908127395222</v>
       </c>
       <c r="V31" t="n">
-        <v>93.21445665319203</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>42.9803348842168</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>142.612139577294</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.9939863054483</v>
       </c>
       <c r="U32" t="n">
         <v>253.1171374361989</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>50.66325368287028</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>86.5123871361486</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25089,13 +25089,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.1337984008994</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.0320816052556</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>118.6001984744887</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.9807231521825</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>231.4916246634004</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>5.708231350413428</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>255.3311994642908</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>408.0553175375213</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>142.612139577294</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1171374361989</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>267.6572399883194</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.1337984008994</v>
       </c>
       <c r="H37" t="n">
-        <v>150.0320816052556</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>193.1597449832303</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>231.4916246634004</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5605284790281</v>
       </c>
       <c r="V37" t="n">
-        <v>100.8277995144303</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>204.9298403917307</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>373.476585065966</v>
+        <v>264.828827367191</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>99.33381454625263</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>83.25791922709202</v>
+        <v>79.36876058368743</v>
       </c>
       <c r="G40" t="n">
         <v>166.1337984008994</v>
@@ -25602,7 +25602,7 @@
         <v>193.1597449832303</v>
       </c>
       <c r="T40" t="n">
-        <v>231.4916246634004</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,10 +25642,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>14.26568134042947</v>
+        <v>57.00580183078159</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>310.8487014719486</v>
       </c>
       <c r="I41" t="n">
         <v>99.33381454625263</v>
@@ -25687,7 +25687,7 @@
         <v>253.1171374361989</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25791,19 +25791,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>91.04098825683192</v>
       </c>
       <c r="G43" t="n">
         <v>166.1337984008994</v>
       </c>
       <c r="H43" t="n">
-        <v>150.0320816052556</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>118.6001984744887</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>193.1597449832303</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>231.4916246634004</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>247.7992011468031</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.0553175375213</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>310.8487014719486</v>
       </c>
       <c r="I44" t="n">
         <v>99.33381454625263</v>
@@ -25918,22 +25918,22 @@
         <v>142.612139577294</v>
       </c>
       <c r="T44" t="n">
-        <v>31.66550154858686</v>
+        <v>216.9939863054483</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1171374361989</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>116.8777502618857</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5.329486749928236</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.0320816052556</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>102.9807231521825</v>
       </c>
       <c r="S46" t="n">
-        <v>35.24208209097171</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>231.4916246634004</v>
@@ -26088,7 +26088,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>535344.0484691935</v>
+        <v>535344.0484691933</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710504.6936765782</v>
+        <v>710504.6936765783</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710504.6936765783</v>
+        <v>710504.6936765782</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710504.6936765781</v>
+        <v>710504.6936765783</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>710504.6936765783</v>
+        <v>710504.6936765782</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>710504.6936765781</v>
+        <v>710504.6936765782</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>530497.5129632418</v>
+        <v>530497.5129632421</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>530497.5129632419</v>
+        <v>530497.5129632418</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559029.7520894057</v>
+        <v>559029.7520894059</v>
       </c>
       <c r="C2" t="n">
-        <v>559029.7520894057</v>
+        <v>559029.7520894058</v>
       </c>
       <c r="D2" t="n">
-        <v>559029.7520894061</v>
+        <v>559029.752089406</v>
       </c>
       <c r="E2" t="n">
         <v>358075.5112233124</v>
@@ -26328,7 +26328,7 @@
         <v>358075.5112233124</v>
       </c>
       <c r="G2" t="n">
-        <v>479077.2679319607</v>
+        <v>479077.2679319609</v>
       </c>
       <c r="H2" t="n">
         <v>479077.2679319608</v>
@@ -26337,25 +26337,25 @@
         <v>479077.2679319608</v>
       </c>
       <c r="J2" t="n">
+        <v>479077.267931961</v>
+      </c>
+      <c r="K2" t="n">
         <v>479077.2679319609</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>479077.2679319608</v>
       </c>
-      <c r="L2" t="n">
-        <v>479077.2679319607</v>
-      </c>
       <c r="M2" t="n">
+        <v>479077.2679319609</v>
+      </c>
+      <c r="N2" t="n">
         <v>479077.2679319606</v>
       </c>
-      <c r="N2" t="n">
-        <v>479077.2679319607</v>
-      </c>
       <c r="O2" t="n">
-        <v>363263.5343705355</v>
+        <v>363263.5343705358</v>
       </c>
       <c r="P2" t="n">
-        <v>363263.5343705357</v>
+        <v>363263.5343705358</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>85324.40928676524</v>
       </c>
       <c r="F4" t="n">
-        <v>85324.40928676522</v>
+        <v>85324.40928676524</v>
       </c>
       <c r="G4" t="n">
         <v>108490.2489675625</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118867.5426389626</v>
+        <v>118867.5426389629</v>
       </c>
       <c r="C6" t="n">
-        <v>195932.7545101853</v>
+        <v>195932.7545101854</v>
       </c>
       <c r="D6" t="n">
-        <v>122064.5933908311</v>
+        <v>122064.593390831</v>
       </c>
       <c r="E6" t="n">
-        <v>114534.2829136024</v>
+        <v>113886.0434269376</v>
       </c>
       <c r="F6" t="n">
-        <v>234197.9556302218</v>
+        <v>233549.716143557</v>
       </c>
       <c r="G6" t="n">
-        <v>95069.52122682944</v>
+        <v>94811.6099876121</v>
       </c>
       <c r="H6" t="n">
-        <v>300577.1130312289</v>
+        <v>300319.2017920113</v>
       </c>
       <c r="I6" t="n">
-        <v>300577.1130312289</v>
+        <v>300319.2017920113</v>
       </c>
       <c r="J6" t="n">
-        <v>240409.2036521826</v>
+        <v>240151.292412965</v>
       </c>
       <c r="K6" t="n">
-        <v>300577.1130312289</v>
+        <v>300319.2017920114</v>
       </c>
       <c r="L6" t="n">
-        <v>211810.0405444446</v>
+        <v>211552.1293052271</v>
       </c>
       <c r="M6" t="n">
-        <v>300577.1130312288</v>
+        <v>300319.2017920114</v>
       </c>
       <c r="N6" t="n">
-        <v>300577.1130312288</v>
+        <v>300319.2017920112</v>
       </c>
       <c r="O6" t="n">
-        <v>248710.3251218331</v>
+        <v>248078.8211937079</v>
       </c>
       <c r="P6" t="n">
-        <v>248710.3251218332</v>
+        <v>248078.8211937079</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C2" t="n">
-        <v>237.0325982430705</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27390,16 +27390,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G2" t="n">
-        <v>179.0701528187257</v>
+        <v>278.322691163862</v>
       </c>
       <c r="H2" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27447,7 +27447,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27466,13 +27466,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -27514,19 +27514,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>148.1615072198456</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>25.84188837376757</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>64.34515061910663</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>214.2892156850107</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>376.0472187774579</v>
       </c>
       <c r="G5" t="n">
         <v>179.0701528187257</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>200.3248151918458</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27684,7 +27684,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27697,16 +27697,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>159.8704208403129</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>60.22860554495281</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -27785,7 +27785,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>7.742021454523012</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>52.62342870236691</v>
+        <v>138.4913936624172</v>
       </c>
       <c r="V7" t="n">
         <v>33.35857658923285</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>171.6948758345162</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>209.3975040605634</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27918,10 +27918,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>41.59949697436187</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>41.59949697436184</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>10.1287987284214</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>46.75244987071559</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28076,7 +28076,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O2" t="n">
         <v>229.9609751381512</v>
@@ -34783,22 +34783,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>106.4120648096125</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>229.9609751381512</v>
+        <v>33.9569355962577</v>
       </c>
       <c r="O5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="M6" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>229.9609751381512</v>
@@ -35032,7 +35032,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>325.5630300742119</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>138.8503430631526</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35260,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>580.6928165974845</v>
+        <v>556.4332907012331</v>
       </c>
       <c r="N9" t="n">
-        <v>34.46905485302109</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>118.45524115358</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>438.7752394197637</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>580.6928165974845</v>
       </c>
       <c r="M11" t="n">
         <v>580.6928165974845</v>
@@ -35424,13 +35424,13 @@
         <v>580.6928165974845</v>
       </c>
       <c r="O11" t="n">
-        <v>545.3717914577264</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>341.1775377711452</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.3739679419568</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>37.37728531538441</v>
+      </c>
+      <c r="O12" t="n">
         <v>580.6928165974845</v>
-      </c>
-      <c r="O12" t="n">
-        <v>315.0052173233528</v>
       </c>
       <c r="P12" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K14" t="n">
         <v>438.7752394197637</v>
@@ -35658,10 +35658,10 @@
         <v>580.6928165974845</v>
       </c>
       <c r="N14" t="n">
-        <v>580.6928165974845</v>
+        <v>502.2166471049837</v>
       </c>
       <c r="O14" t="n">
-        <v>118.4552411535799</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L15" t="n">
-        <v>86.33445969487323</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M15" t="n">
-        <v>580.6928165974845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>580.6928165974845</v>
+        <v>37.37728531538394</v>
       </c>
       <c r="O15" t="n">
         <v>580.6928165974845</v>
@@ -35746,7 +35746,7 @@
         <v>470.8960208784699</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>228.9315713058733</v>
+        <v>228.9315713058723</v>
       </c>
       <c r="K17" t="n">
         <v>486.7351850628859</v>
@@ -35901,7 +35901,7 @@
         <v>608.8975231399889</v>
       </c>
       <c r="P17" t="n">
-        <v>492.0272955729488</v>
+        <v>492.0272955729496</v>
       </c>
       <c r="Q17" t="n">
         <v>292.0892344342474</v>
@@ -35974,19 +35974,19 @@
         <v>766.4021761897041</v>
       </c>
       <c r="N18" t="n">
-        <v>327.67836207699</v>
+        <v>798.1926966573465</v>
       </c>
       <c r="O18" t="n">
         <v>645.959625880191</v>
       </c>
       <c r="P18" t="n">
-        <v>509.4176341356738</v>
+        <v>47.64171092901502</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.738411373697204</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>163.5849931328991</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>407.2772781524413</v>
       </c>
       <c r="L21" t="n">
         <v>23.30276006796036</v>
       </c>
       <c r="M21" t="n">
-        <v>304.6262529830449</v>
+        <v>39.90227673970405</v>
       </c>
       <c r="N21" t="n">
-        <v>798.1926966573465</v>
+        <v>188.6757912979093</v>
       </c>
       <c r="O21" t="n">
         <v>645.959625880191</v>
@@ -36220,7 +36220,7 @@
         <v>509.4176341356738</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>303.3786103174377</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>407.2772781524413</v>
       </c>
       <c r="L24" t="n">
         <v>601.8136987413566</v>
       </c>
       <c r="M24" t="n">
-        <v>465.1510069118949</v>
+        <v>39.90227673970405</v>
       </c>
       <c r="N24" t="n">
-        <v>50.41859268140297</v>
+        <v>77.12845607484981</v>
       </c>
       <c r="O24" t="n">
         <v>645.959625880191</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.738411373697204</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>163.5849931328991</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>407.2772781524413</v>
       </c>
       <c r="L27" t="n">
-        <v>23.30276006796036</v>
+        <v>601.8136987413566</v>
       </c>
       <c r="M27" t="n">
-        <v>585.4367535086519</v>
+        <v>39.90227673970405</v>
       </c>
       <c r="N27" t="n">
-        <v>50.41859268140297</v>
+        <v>77.12845607484981</v>
       </c>
       <c r="O27" t="n">
         <v>645.959625880191</v>
@@ -36694,7 +36694,7 @@
         <v>509.4176341356738</v>
       </c>
       <c r="Q27" t="n">
-        <v>303.3786103174377</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>407.2772781524413</v>
       </c>
       <c r="L30" t="n">
-        <v>58.32875593960353</v>
+        <v>601.8136987413566</v>
       </c>
       <c r="M30" t="n">
-        <v>766.4021761897041</v>
+        <v>39.90227673970405</v>
       </c>
       <c r="N30" t="n">
-        <v>798.1926966573465</v>
+        <v>77.12845607484981</v>
       </c>
       <c r="O30" t="n">
         <v>645.959625880191</v>
       </c>
       <c r="P30" t="n">
-        <v>12.61571505737183</v>
+        <v>509.4176341356738</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>601.8136987413566</v>
       </c>
       <c r="M33" t="n">
-        <v>766.4021761897041</v>
+        <v>39.90227673970405</v>
       </c>
       <c r="N33" t="n">
-        <v>461.8556937748504</v>
+        <v>77.12845607484981</v>
       </c>
       <c r="O33" t="n">
-        <v>31.53440780849296</v>
+        <v>645.959625880191</v>
       </c>
       <c r="P33" t="n">
-        <v>12.61571505737183</v>
+        <v>509.4176341356738</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>407.2772781524413</v>
       </c>
       <c r="L36" t="n">
         <v>601.8136987413566</v>
       </c>
       <c r="M36" t="n">
-        <v>766.4021761897041</v>
+        <v>39.90227673970405</v>
       </c>
       <c r="N36" t="n">
-        <v>254.7077538555932</v>
+        <v>77.12845607484981</v>
       </c>
       <c r="O36" t="n">
         <v>645.959625880191</v>
       </c>
       <c r="P36" t="n">
-        <v>12.61571505737183</v>
+        <v>509.4176341356738</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>407.2772781524413</v>
       </c>
       <c r="L39" t="n">
         <v>601.8136987413566</v>
       </c>
       <c r="M39" t="n">
-        <v>667.3127270464564</v>
+        <v>39.90227673970405</v>
       </c>
       <c r="N39" t="n">
-        <v>50.41859268140297</v>
+        <v>77.12845607484981</v>
       </c>
       <c r="O39" t="n">
         <v>645.959625880191</v>
       </c>
       <c r="P39" t="n">
-        <v>12.61571505737183</v>
+        <v>509.4176341356738</v>
       </c>
       <c r="Q39" t="n">
-        <v>303.3786103174377</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>580.6928165974842</v>
       </c>
       <c r="M41" t="n">
-        <v>21.61871969994863</v>
+        <v>46.81152883294356</v>
       </c>
       <c r="N41" t="n">
-        <v>24.99780131388596</v>
+        <v>580.6928165974842</v>
       </c>
       <c r="O41" t="n">
         <v>580.6928165974842</v>
       </c>
       <c r="P41" t="n">
-        <v>492.0272955729488</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>112.5442955211585</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>23.68376667751362</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>163.5849931328991</v>
+        <v>104.359143446328</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>407.2772781524413</v>
       </c>
       <c r="L42" t="n">
-        <v>23.30276006796036</v>
+        <v>580.6928165974842</v>
       </c>
       <c r="M42" t="n">
-        <v>111.6909275015797</v>
+        <v>39.90227673970405</v>
       </c>
       <c r="N42" t="n">
-        <v>580.6928165974842</v>
+        <v>50.41859268140297</v>
       </c>
       <c r="O42" t="n">
         <v>580.6928165974842</v>
@@ -37879,7 +37879,7 @@
         <v>509.4176341356738</v>
       </c>
       <c r="Q42" t="n">
-        <v>303.3786103174377</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>8.738411373697204</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>228.9315713058723</v>
       </c>
       <c r="K44" t="n">
-        <v>486.7351850628859</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>580.6928165974842</v>
       </c>
       <c r="M44" t="n">
+        <v>21.61871969994863</v>
+      </c>
+      <c r="N44" t="n">
+        <v>395.3457105920579</v>
+      </c>
+      <c r="O44" t="n">
         <v>580.6928165974842</v>
       </c>
-      <c r="N44" t="n">
-        <v>580.6928165974842</v>
-      </c>
-      <c r="O44" t="n">
-        <v>70.49529551045728</v>
-      </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>492.0272955729488</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>407.2772781524413</v>
       </c>
       <c r="L45" t="n">
         <v>580.6928165974842</v>
       </c>
       <c r="M45" t="n">
-        <v>526.8048048743916</v>
+        <v>39.90227673970405</v>
       </c>
       <c r="N45" t="n">
-        <v>580.6928165974842</v>
+        <v>50.41859268140297</v>
       </c>
       <c r="O45" t="n">
         <v>580.6928165974842</v>
       </c>
       <c r="P45" t="n">
-        <v>12.61571505737183</v>
+        <v>509.4176341356738</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.3591434463281</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.738411373697204</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
